--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learning\uipath\LibraryFineCalculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF968827-8797-4530-911B-AEFD7215746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE665A6-C202-4188-B55B-629317132C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,13 +316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFADFF2F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -705,7 +705,7 @@
       <c r="F2" s="1">
         <v>44064</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
       <c r="F3" s="1">
         <v>44063</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>190</v>
       </c>
     </row>
@@ -751,7 +751,7 @@
       <c r="F4" s="1">
         <v>44062</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>110</v>
       </c>
     </row>
@@ -774,7 +774,7 @@
       <c r="F5" s="1">
         <v>44063</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>160</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
       <c r="F6" s="1">
         <v>44060</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -820,7 +820,7 @@
       <c r="F7" s="1">
         <v>44052</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>90</v>
       </c>
     </row>
@@ -843,7 +843,7 @@
       <c r="F8" s="1">
         <v>44063</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="F9" s="1">
         <v>44063</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
       <c r="F10" s="1">
         <v>44062</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>450</v>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="F11" s="1">
         <v>44063</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>160</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
       <c r="F12" s="1">
         <v>44060</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>160</v>
       </c>
     </row>
@@ -958,7 +958,7 @@
       <c r="F13" s="1">
         <v>44063</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>190</v>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="F14" s="1">
         <v>44063</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       <c r="F15" s="1">
         <v>44052</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       <c r="F16" s="1">
         <v>44063</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="F17" s="1">
         <v>44048</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       <c r="F18" s="1">
         <v>44059</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>420</v>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       <c r="F19" s="1">
         <v>44070</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       <c r="F20" s="1">
         <v>44064</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       <c r="F21" s="1">
         <v>44063</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>190</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       <c r="F22" s="1">
         <v>44062</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="F23" s="1">
         <v>44063</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>160</v>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       <c r="F24" s="1">
         <v>44060</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       <c r="F25" s="1">
         <v>44052</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>90</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       <c r="F26" s="1">
         <v>44063</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       <c r="F27" s="1">
         <v>44064</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>170</v>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       <c r="F28" s="1">
         <v>44064</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       <c r="F29" s="1">
         <v>44063</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>190</v>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       <c r="F30" s="1">
         <v>44062</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>110</v>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       <c r="F31" s="1">
         <v>44062</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>450</v>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       <c r="F32" s="1">
         <v>44063</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>160</v>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       <c r="F33" s="1">
         <v>44060</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>160</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="F34" s="1">
         <v>44063</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>190</v>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="F35" s="1">
         <v>44063</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       <c r="F36" s="1">
         <v>44052</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       <c r="F37" s="1">
         <v>44063</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       <c r="F38" s="1">
         <v>44048</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       <c r="F39" s="1">
         <v>44059</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="3">
         <v>420</v>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       <c r="F40" s="1">
         <v>44070</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="F41" s="1">
         <v>44064</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       <c r="F42" s="1">
         <v>44063</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="3">
         <v>190</v>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       <c r="F43" s="1">
         <v>44062</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       <c r="F44" s="1">
         <v>44063</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="3">
         <v>160</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="F45" s="1">
         <v>44060</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       <c r="F46" s="1">
         <v>44052</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="3">
         <v>90</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       <c r="F47" s="1">
         <v>44063</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       <c r="F48" s="1">
         <v>44064</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="3">
         <v>170</v>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       <c r="F49" s="1">
         <v>44064</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="F50" s="1">
         <v>44063</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="3">
         <v>190</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       <c r="F51" s="1">
         <v>44062</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="3">
         <v>110</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="F52" s="1">
         <v>44063</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="3">
         <v>160</v>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       <c r="F53" s="1">
         <v>44060</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       <c r="F54" s="1">
         <v>44052</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="3">
         <v>90</v>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       <c r="F55" s="1">
         <v>44063</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       <c r="F56" s="1">
         <v>44062</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="3">
         <v>450</v>
       </c>
     </row>
@@ -1970,7 +1970,7 @@
       <c r="F57" s="1">
         <v>44063</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="3">
         <v>160</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       <c r="F58" s="1">
         <v>44060</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="3">
         <v>160</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       <c r="F59" s="1">
         <v>44048</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="F60" s="1">
         <v>44059</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="3">
         <v>420</v>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       <c r="F61" s="1">
         <v>44070</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="F62" s="1">
         <v>44064</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="3">
         <v>200</v>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       <c r="F63" s="1">
         <v>44063</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="3">
         <v>190</v>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       <c r="F64" s="1">
         <v>44062</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       <c r="F65" s="1">
         <v>44063</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="3">
         <v>160</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       <c r="F66" s="1">
         <v>44063</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="F67" s="1">
         <v>44064</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="3">
         <v>170</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       <c r="F68" s="1">
         <v>44060</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
       <c r="F69" s="1">
         <v>44052</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="3">
         <v>90</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="F70" s="1">
         <v>44063</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       <c r="F71" s="1">
         <v>44064</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="3">
         <v>170</v>
       </c>
     </row>
